--- a/NFLX ^M WBD Acquisition Analysis Excel File.xlsx
+++ b/NFLX ^M WBD Acquisition Analysis Excel File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69751B0-7119-4160-918A-6FB7679F275F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861C3966-5BA9-4AB8-8A87-D6A0C584BD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{5FB6ADB1-B13F-47EF-AEA6-3566EB9F099F}"/>
   </bookViews>
@@ -3540,8 +3540,8 @@
       <xdr:rowOff>117547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1670958</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>155241</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>20057</xdr:rowOff>
     </xdr:to>
@@ -3587,7 +3587,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1098688</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -14983,18 +14983,18 @@
   <dimension ref="B1:V53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="4" customWidth="1"/>
     <col min="4" max="4" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="4" customWidth="1"/>
     <col min="8" max="8" width="6.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="56.140625" style="4" bestFit="1" customWidth="1"/>
@@ -16571,7 +16571,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </to>
@@ -16590,7 +16590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35529844-9F29-4CB6-81F4-0919E9A07AD7}">
   <dimension ref="A2:P117"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -18710,7 +18710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D27F99-4F78-43CB-B47B-146B52272338}">
   <dimension ref="A2:H58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
